--- a/Luban/Configs/Datas/__beans__.xlsx
+++ b/Luban/Configs/Datas/__beans__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Game Projects\Unity Projects\Genpai\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC0579F-5654-4DDA-8400-E85569F0AA10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8538D6DF-7935-4FC4-9B48-6F68703C16B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="6225" yWindow="-120" windowWidth="22695" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>##var</t>
   </si>
@@ -73,98 +73,79 @@
     <t>注释</t>
   </si>
   <si>
-    <t>test.TestExcelBean1</t>
-  </si>
-  <si>
-    <t>这是个测试excel结构</t>
-  </si>
-  <si>
-    <t>x1</t>
+    <t>effect.EffectInfo</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述一次Effect</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充描述</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充数值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标范围</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-  </si>
-  <si>
-    <t>最高品质</t>
-  </si>
-  <si>
-    <t>x2</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>黑色的</t>
-  </si>
-  <si>
-    <t>x3</t>
-  </si>
-  <si>
-    <t>蓝色的</t>
-  </si>
-  <si>
-    <t>x4</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>最差品质</t>
-  </si>
-  <si>
-    <t>test.TestExcelBean2</t>
-  </si>
-  <si>
-    <t>y1</t>
-  </si>
-  <si>
-    <t>y2</t>
-  </si>
-  <si>
-    <t>y3</t>
-  </si>
-  <si>
-    <t>test.Shape</t>
-  </si>
-  <si>
-    <t>test.Circle</t>
-  </si>
-  <si>
-    <t>Shape</t>
-  </si>
-  <si>
-    <t>圆</t>
-  </si>
-  <si>
-    <t>radius</t>
-  </si>
-  <si>
-    <t>半径</t>
-  </si>
-  <si>
-    <t>test.Rectangle</t>
-  </si>
-  <si>
-    <t>矩形</t>
-  </si>
-  <si>
-    <t>width</t>
-  </si>
-  <si>
-    <t>宽度</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>高度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_type</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_appendix</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>numerical</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>target_type</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>target_area</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect.EffectType</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect.TargetArea</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect.TargetType</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +162,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <family val="2"/>
@@ -194,23 +182,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -248,10 +237,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -259,20 +248,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -551,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -562,7 +551,8 @@
     <col min="2" max="3" width="20.625" customWidth="1"/>
     <col min="4" max="4" width="12.25" customWidth="1"/>
     <col min="5" max="6" width="15" customWidth="1"/>
-    <col min="7" max="8" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="8" max="8" width="15.625" customWidth="1"/>
     <col min="9" max="9" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -585,13 +575,13 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -637,173 +627,65 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H4" t="s">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J4" t="s">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G5" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H5" t="s">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="5"/>
-      <c r="E15" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Luban/Configs/Datas/__beans__.xlsx
+++ b/Luban/Configs/Datas/__beans__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Game Projects\Unity Projects\Genpai\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8538D6DF-7935-4FC4-9B48-6F68703C16B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794D533F-025B-4821-BD2C-E313470AD037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="6225" yWindow="-120" windowWidth="22695" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1545" yWindow="3450" windowWidth="22695" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>##var</t>
   </si>
@@ -73,84 +73,131 @@
     <t>注释</t>
   </si>
   <si>
-    <t>effect.EffectInfo</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述一次Effect</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>效果类型</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>补充描述</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>补充数值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>目标类型</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>目标范围</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>effect_type</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>effect_appendix</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>numerical</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>target_type</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>target_area</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>effect.EffectType</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>effect.TargetArea</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>effect.TargetType</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect.BuffConstructProperties</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于构造Buff</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于构造Effect</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect.EffectConstructProperties</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>stories</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>life_cycles</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>construct_info</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>构造备注</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>构造层数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>构造时间</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>构造类型</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_type</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -237,31 +284,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -540,15 +590,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="26.25" customWidth="1"/>
+    <col min="3" max="3" width="20.625" customWidth="1"/>
     <col min="4" max="4" width="12.25" customWidth="1"/>
     <col min="5" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="13.5" customWidth="1"/>
@@ -627,71 +678,123 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G6" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G7" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" t="s">
         <v>30</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="E9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G1:K1"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/Luban/Configs/Datas/__beans__.xlsx
+++ b/Luban/Configs/Datas/__beans__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25407"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Game Projects\Unity Projects\Genpai\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794D533F-025B-4821-BD2C-E313470AD037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EB15AA-CA78-440C-AE5E-2012B8C044CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1545" yWindow="3450" windowWidth="22695" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
   <si>
     <t>##var</t>
   </si>
@@ -74,123 +74,201 @@
   </si>
   <si>
     <t>效果类型</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>补充描述</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>补充数值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>目标类型</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>目标范围</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>effect_type</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>effect_appendix</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>numerical</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>target_type</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>target_area</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>effect.EffectType</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>effect.TargetArea</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>effect.TargetType</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>effect.BuffConstructProperties</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>用于构造Buff</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>用于构造Effect</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>effect.EffectConstructProperties</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>stories</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>life_cycles</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>construct_info</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>构造备注</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>构造层数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>构造时间</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>构造类型</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>buff_type</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>level.Reward</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于描述奖励</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励数量</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>level.LevelUnlock</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于描述关卡/事件解锁条件</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁类型(通关事件/关卡)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁条件(对应编号)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加条件(*待增补)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励id</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlock_type</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlock_condition</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>extra_condition</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励描述</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>reward_id</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -284,21 +362,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -307,11 +391,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -590,24 +674,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="26.25" customWidth="1"/>
-    <col min="3" max="3" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="20.58203125" customWidth="1"/>
     <col min="4" max="4" width="12.25" customWidth="1"/>
     <col min="5" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="13.5" customWidth="1"/>
-    <col min="8" max="8" width="15.625" customWidth="1"/>
-    <col min="9" max="9" width="10.375" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" customWidth="1"/>
+    <col min="8" max="8" width="19.1640625" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -626,15 +710,15 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -654,7 +738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -677,8 +761,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -694,7 +778,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G5" s="4" t="s">
         <v>25</v>
       </c>
@@ -705,7 +789,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G6" s="4" t="s">
         <v>26</v>
       </c>
@@ -716,7 +800,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G7" s="4" t="s">
         <v>27</v>
       </c>
@@ -727,7 +811,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G8" s="4" t="s">
         <v>28</v>
       </c>
@@ -738,63 +822,146 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>43</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="5" t="s">
         <v>38</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G11" s="2" t="s">
         <v>36</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G12" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="5" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G1:K1"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/Luban/Configs/Datas/__beans__.xlsx
+++ b/Luban/Configs/Datas/__beans__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Game Projects\Unity Projects\Genpai\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EB15AA-CA78-440C-AE5E-2012B8C044CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA618A8-73A8-46E3-9CC9-3BCF2F2224AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="27730" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
   <si>
     <t>##var</t>
   </si>
@@ -193,10 +193,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>level.LevelUnlock</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>用于描述关卡/事件解锁条件</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -242,6 +238,18 @@
   </si>
   <si>
     <t>reward_id</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>level.UnlockType</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>level.LevelUnlocker</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -677,7 +685,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -883,20 +891,20 @@
         <v>45</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="D14" s="2"/>
       <c r="G14" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>23</v>
@@ -909,52 +917,52 @@
       <c r="B15" s="2"/>
       <c r="D15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="G16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" t="s">
+        <v>59</v>
+      </c>
+      <c r="J16" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="17" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G17" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G18" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/Configs/Datas/__beans__.xlsx
+++ b/Luban/Configs/Datas/__beans__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Game Projects\Unity Projects\Genpai\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA618A8-73A8-46E3-9CC9-3BCF2F2224AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5573A2B-5237-472D-85DE-0A286BBB649B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="27730" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="27730" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
   <si>
     <t>##var</t>
   </si>
@@ -243,10 +243,6 @@
   <si>
     <t>level.UnlockType</t>
     <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>level.LevelUnlocker</t>
@@ -685,7 +681,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -928,7 +924,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>47</v>
@@ -959,7 +955,7 @@
         <v>54</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>50</v>
